--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA9562-9683-474E-A5AE-E1AB2301D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4AF9B-0659-40C7-959A-FDC7366A88D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="1992" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -428,7 +427,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +450,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4AF9B-0659-40C7-959A-FDC7366A88D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572147DC-21B9-443C-B092-CABDF81B6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="432" yWindow="3012" windowWidth="17304" windowHeight="8892" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$B$1:$C$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>master</t>
   </si>
@@ -57,29 +61,206 @@
     <t>segretaria</t>
   </si>
   <si>
-    <t>attivazione coc</t>
-  </si>
-  <si>
-    <t>giornalista</t>
-  </si>
-  <si>
-    <t>richiesta info sindaco</t>
-  </si>
-  <si>
-    <t>ritorno info sindaco</t>
-  </si>
-  <si>
-    <t>richiesta info coc</t>
-  </si>
-  <si>
-    <t>ritorno info coc</t>
+    <t>codiceUnivoco</t>
+  </si>
+  <si>
+    <t>pesona</t>
+  </si>
+  <si>
+    <t>"Seba"</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>codiceUnivocoRichiesta</t>
+  </si>
+  <si>
+    <t>tutti</t>
+  </si>
+  <si>
+    <t>termina partita</t>
+  </si>
+  <si>
+    <t>Quale attività?, fare un codice per ogni attività?, quali sono le attività del master?</t>
+  </si>
+  <si>
+    <t>Task Master</t>
+  </si>
+  <si>
+    <t>refPC</t>
+  </si>
+  <si>
+    <t>monitora argini</t>
+  </si>
+  <si>
+    <t>svuota zone alluzionate</t>
+  </si>
+  <si>
+    <t>evacuazione cittadini</t>
+  </si>
+  <si>
+    <t>punti di raccolta</t>
+  </si>
+  <si>
+    <t>refGGEV</t>
+  </si>
+  <si>
+    <t>cerca rimuovi tane</t>
+  </si>
+  <si>
+    <t>pulizia fossi</t>
+  </si>
+  <si>
+    <t>volGGEV</t>
+  </si>
+  <si>
+    <t>Rimuove materiale pericoloso</t>
+  </si>
+  <si>
+    <t>volPC</t>
+  </si>
+  <si>
+    <t>refCRI</t>
+  </si>
+  <si>
+    <t>ambiente prime cure</t>
+  </si>
+  <si>
+    <t>Primo soccorso ferito</t>
+  </si>
+  <si>
+    <t>volCRI</t>
+  </si>
+  <si>
+    <t>vista generica</t>
+  </si>
+  <si>
+    <t>medico</t>
+  </si>
+  <si>
+    <t>cura ferito primo soccorso</t>
+  </si>
+  <si>
+    <t>regola traffico</t>
+  </si>
+  <si>
+    <t>crea percorsi alternativi</t>
+  </si>
+  <si>
+    <t>refPolizia</t>
+  </si>
+  <si>
+    <t>volPolizia</t>
+  </si>
+  <si>
+    <t>inidente</t>
+  </si>
+  <si>
+    <t>refPomp</t>
+  </si>
+  <si>
+    <t>salvataggio persone/animali</t>
+  </si>
+  <si>
+    <t>volPomp</t>
+  </si>
+  <si>
+    <t>ricerca disperis</t>
+  </si>
+  <si>
+    <t>spegni incendio</t>
+  </si>
+  <si>
+    <t>altri volontari PC</t>
+  </si>
+  <si>
+    <t>altri volontari GGEV</t>
+  </si>
+  <si>
+    <t>altri volontari CRI</t>
+  </si>
+  <si>
+    <t>altri volontari polizia</t>
+  </si>
+  <si>
+    <t>altri volontari pompiere</t>
+  </si>
+  <si>
+    <t>altri volontari PC negato</t>
+  </si>
+  <si>
+    <t>altri volontari GGEV negato</t>
+  </si>
+  <si>
+    <t>altri volontari CRI negato</t>
+  </si>
+  <si>
+    <t>altri volontari polizia negato</t>
+  </si>
+  <si>
+    <t>altri volontari pompiere negato</t>
+  </si>
+  <si>
+    <t>step1</t>
+  </si>
+  <si>
+    <t>negato</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>step3</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>step5</t>
+  </si>
+  <si>
+    <t>tlc</t>
+  </si>
+  <si>
+    <t>medico-visita medica</t>
+  </si>
+  <si>
+    <t>persona dispersa</t>
+  </si>
+  <si>
+    <t>refCri</t>
+  </si>
+  <si>
+    <t>materiale pericoloso</t>
+  </si>
+  <si>
+    <t>incendio generico</t>
+  </si>
+  <si>
+    <t>medico-incendio casa</t>
+  </si>
+  <si>
+    <t>medico-incidente</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>incendio casa</t>
+  </si>
+  <si>
+    <t>incidente</t>
+  </si>
+  <si>
+    <t>caricare le persone effettive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +268,92 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +368,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -424,18 +699,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -449,133 +725,1214 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>45</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>46</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>47</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>50</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>55</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>56</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>57</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>61</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>62</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>63</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>64</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>65</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>66</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>67</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>68</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>69</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>70</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>71</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>72</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>73</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>74</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>75</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>76</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>77</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>78</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>79</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>80</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>81</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>82</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>83</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>84</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>100</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>56</v>
+      </c>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>101</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="12">
+        <v>57</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>102</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>103</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96">
+        <v>57</v>
+      </c>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>104</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97">
+        <v>27</v>
+      </c>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>105</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98">
+        <v>37</v>
+      </c>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>106</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>107</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="13">
+        <v>47</v>
+      </c>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1150</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:C99" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1339F7FB-850B-46A8-BA31-EDEF54D700FB}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572147DC-21B9-443C-B092-CABDF81B6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1ADB1-EADA-4A3B-B83E-D434C28A331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="3012" windowWidth="17304" windowHeight="8892" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
   <si>
     <t>master</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>termina partita</t>
-  </si>
-  <si>
-    <t>Quale attività?, fare un codice per ogni attività?, quali sono le attività del master?</t>
-  </si>
-  <si>
-    <t>Task Master</t>
   </si>
   <si>
     <t>refPC</t>
@@ -288,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -383,6 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -699,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +714,7 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -738,11 +741,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -755,11 +755,8 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -773,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -781,21 +778,21 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -803,21 +800,21 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -825,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -839,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -853,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -867,10 +864,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,13 +878,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,13 +892,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,13 +906,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,13 +920,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,13 +979,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,13 +993,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,10 +1010,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
         <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,13 +1038,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,13 +1052,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,13 +1066,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,13 +1080,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,13 +1125,13 @@
         <v>45</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,13 +1139,13 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,13 +1153,13 @@
         <v>47</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,13 +1184,13 @@
         <v>55</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,13 +1198,13 @@
         <v>56</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D52" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1215,13 +1212,13 @@
         <v>57</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1229,16 +1226,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,13 +1243,13 @@
         <v>61</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1260,13 +1257,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1274,13 +1271,13 @@
         <v>63</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1288,13 +1285,13 @@
         <v>64</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1308,13 +1305,13 @@
         <v>15</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1325,10 +1322,10 @@
         <v>15</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1339,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1353,10 +1350,10 @@
         <v>15</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1367,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1387,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1508,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1522,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,10 +1536,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1570,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1598,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,10 +1626,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1674,10 +1671,10 @@
         <v>9</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -1688,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E93">
         <v>56</v>
@@ -1706,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E94" s="12">
         <v>57</v>
@@ -1724,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D95" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F95" s="11"/>
     </row>
@@ -1742,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E96">
         <v>57</v>
@@ -1760,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E97">
         <v>27</v>
@@ -1778,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E98">
         <v>37</v>
@@ -1796,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="F99" s="11"/>
     </row>
@@ -1814,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E100" s="13">
         <v>47</v>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1ADB1-EADA-4A3B-B83E-D434C28A331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C372D7-1F06-47AD-AA25-BFEE6A940897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
   <si>
     <t>master</t>
   </si>
@@ -103,9 +103,6 @@
     <t>cerca rimuovi tane</t>
   </si>
   <si>
-    <t>pulizia fossi</t>
-  </si>
-  <si>
     <t>volGGEV</t>
   </si>
   <si>
@@ -248,6 +245,45 @@
   </si>
   <si>
     <t>caricare le persone effettive</t>
+  </si>
+  <si>
+    <t>volFuovo</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>dispersiScena1</t>
+  </si>
+  <si>
+    <t>dispersiScena2</t>
+  </si>
+  <si>
+    <t>dispersiScena3</t>
+  </si>
+  <si>
+    <t>rimuovi overlay dispersi</t>
+  </si>
+  <si>
+    <t>Allagamento1</t>
+  </si>
+  <si>
+    <t>Allagamento2</t>
+  </si>
+  <si>
+    <t>Allagamento3</t>
+  </si>
+  <si>
+    <t>Allagamento4</t>
+  </si>
+  <si>
+    <t>AllagamentoRimuovi</t>
+  </si>
+  <si>
+    <t>VolPC</t>
+  </si>
+  <si>
+    <t>ambienteCRI</t>
   </si>
 </sst>
 </file>
@@ -282,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +391,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -368,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -388,6 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -702,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +765,7 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -742,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -756,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -770,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -778,21 +829,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -800,21 +852,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -828,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -842,7 +895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -856,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -870,10 +923,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -881,13 +934,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -895,13 +949,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -909,13 +964,14 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -923,13 +979,14 @@
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -943,24 +1000,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -968,27 +1016,20 @@
         <v>22</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -996,13 +1037,14 @@
         <v>22</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1010,13 +1052,14 @@
         <v>7</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1024,72 +1067,76 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1097,13 +1144,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1111,58 +1158,61 @@
         <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>47</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>50</v>
       </c>
@@ -1170,58 +1220,61 @@
         <v>7</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>55</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>56</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>57</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>60</v>
       </c>
@@ -1232,13 +1285,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>61</v>
       </c>
@@ -1249,55 +1302,55 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>63</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>64</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>65</v>
       </c>
@@ -1308,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>66</v>
       </c>
@@ -1325,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>67</v>
       </c>
@@ -1336,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1350,10 +1403,10 @@
         <v>15</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,10 +1417,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,10 +1513,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,10 +1589,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1553,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1567,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1581,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1595,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,10 +1665,10 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1640,13 +1693,13 @@
         <v>9</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -1657,10 +1710,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1671,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -1685,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E93">
         <v>56</v>
@@ -1703,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" s="12">
         <v>57</v>
@@ -1721,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F95" s="11"/>
     </row>
@@ -1739,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96">
         <v>57</v>
@@ -1760,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E97">
         <v>27</v>
@@ -1775,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E98">
         <v>37</v>
@@ -1793,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="F99" s="11"/>
     </row>
@@ -1811,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E100" s="13">
         <v>47</v>
@@ -1846,34 +1899,165 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1130</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1131</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1140</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1141</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2000</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2001</v>
+      </c>
+      <c r="B124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2002</v>
+      </c>
+      <c r="B125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2003</v>
+      </c>
+      <c r="D126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>16001</v>
+      </c>
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>16002</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>16003</v>
+      </c>
+      <c r="B133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>16004</v>
+      </c>
+      <c r="B134" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>16005</v>
+      </c>
+      <c r="B135" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>18000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>30000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +2073,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C372D7-1F06-47AD-AA25-BFEE6A940897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB27CEE7-F8EE-43F1-8222-B86444450B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
   <si>
     <t>master</t>
   </si>
@@ -265,25 +265,37 @@
     <t>rimuovi overlay dispersi</t>
   </si>
   <si>
-    <t>Allagamento1</t>
-  </si>
-  <si>
-    <t>Allagamento2</t>
-  </si>
-  <si>
-    <t>Allagamento3</t>
-  </si>
-  <si>
-    <t>Allagamento4</t>
-  </si>
-  <si>
     <t>AllagamentoRimuovi</t>
   </si>
   <si>
-    <t>VolPC</t>
-  </si>
-  <si>
     <t>ambienteCRI</t>
+  </si>
+  <si>
+    <t>Allagamento</t>
+  </si>
+  <si>
+    <t>incendio</t>
+  </si>
+  <si>
+    <t>incendioRimuovi</t>
+  </si>
+  <si>
+    <t>materialePerioloso</t>
+  </si>
+  <si>
+    <t>monnezza</t>
+  </si>
+  <si>
+    <t>rimuovi</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>persone che non vogliono evacuare</t>
+  </si>
+  <si>
+    <t>95+num</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -416,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -437,8 +455,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -753,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +861,7 @@
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -865,7 +884,7 @@
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -923,10 +942,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -939,9 +958,9 @@
       <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -955,8 +974,9 @@
         <v>19</v>
       </c>
       <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -969,9 +989,10 @@
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -986,7 +1007,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1000,15 +1021,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1023,13 +1044,13 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1043,8 +1064,9 @@
         <v>25</v>
       </c>
       <c r="F29" s="17"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1057,7 +1079,6 @@
       <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1104,7 +1125,7 @@
       <c r="D36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -1119,7 +1140,7 @@
       <c r="D37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -1134,7 +1155,7 @@
       <c r="D38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
@@ -1146,7 +1167,7 @@
       <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1177,10 +1198,10 @@
       <c r="C44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1195,7 +1216,7 @@
       <c r="D45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
@@ -1210,9 +1231,9 @@
       <c r="D46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="16"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>50</v>
       </c>
@@ -1226,10 +1247,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>55</v>
       </c>
@@ -1242,9 +1263,9 @@
       <c r="D51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>56</v>
       </c>
@@ -1259,7 +1280,7 @@
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>57</v>
       </c>
@@ -1273,8 +1294,9 @@
         <v>43</v>
       </c>
       <c r="F53" s="15"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>60</v>
       </c>
@@ -1291,7 +1313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>61</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>62</v>
       </c>
@@ -1319,7 +1341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>63</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>64</v>
       </c>
@@ -1347,10 +1369,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>65</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>66</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>67</v>
       </c>
@@ -1874,6 +1896,20 @@
       </c>
       <c r="F100" s="11"/>
     </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1110</v>
@@ -1910,7 +1946,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="16">
         <v>1140</v>
       </c>
     </row>
@@ -1974,90 +2010,71 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
+        <v>16000</v>
+      </c>
+      <c r="D131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>16001</v>
       </c>
-      <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" t="s">
-        <v>73</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>16002</v>
-      </c>
-      <c r="B132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>16003</v>
-      </c>
-      <c r="B133" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" t="s">
-        <v>73</v>
-      </c>
-      <c r="D133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>16004</v>
-      </c>
-      <c r="B134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" t="s">
-        <v>73</v>
+        <v>57000</v>
       </c>
       <c r="D134" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>16005</v>
-      </c>
-      <c r="B135" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" t="s">
-        <v>73</v>
+        <v>57001</v>
       </c>
       <c r="D135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>18000</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D137" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>30000</v>
+      </c>
+      <c r="D138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>27001</v>
+      </c>
+      <c r="D141" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB27CEE7-F8EE-43F1-8222-B86444450B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277A19C-BBDB-4C22-9330-771D8754F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>master</t>
   </si>
@@ -245,24 +245,6 @@
   </si>
   <si>
     <t>caricare le persone effettive</t>
-  </si>
-  <si>
-    <t>volFuovo</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>dispersiScena1</t>
-  </si>
-  <si>
-    <t>dispersiScena2</t>
-  </si>
-  <si>
-    <t>dispersiScena3</t>
-  </si>
-  <si>
-    <t>rimuovi overlay dispersi</t>
   </si>
   <si>
     <t>AllagamentoRimuovi</t>
@@ -434,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -458,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -772,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +972,7 @@
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,7 +1184,7 @@
       <c r="D44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1617,7 +1600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>81</v>
       </c>
@@ -1631,7 +1614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>82</v>
       </c>
@@ -1645,7 +1628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>83</v>
       </c>
@@ -1659,7 +1642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>84</v>
       </c>
@@ -1673,10 +1656,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -1693,7 +1676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -1707,7 +1690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -1723,8 +1706,9 @@
       <c r="F88" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -1738,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -1752,7 +1736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>100</v>
       </c>
@@ -1770,7 +1754,7 @@
       </c>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>101</v>
       </c>
@@ -1788,7 +1772,7 @@
       </c>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>102</v>
       </c>
@@ -1806,7 +1790,7 @@
       </c>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>103</v>
       </c>
@@ -1898,16 +1882,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -1961,61 +1945,35 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2000</v>
-      </c>
-      <c r="B123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" t="s">
-        <v>74</v>
-      </c>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2001</v>
-      </c>
-      <c r="B124" t="s">
-        <v>72</v>
-      </c>
-      <c r="C124" t="s">
-        <v>73</v>
-      </c>
-      <c r="D124" t="s">
-        <v>75</v>
-      </c>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2002</v>
-      </c>
-      <c r="B125" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" t="s">
-        <v>73</v>
-      </c>
-      <c r="D125" t="s">
-        <v>76</v>
-      </c>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>2003</v>
-      </c>
-      <c r="D126" t="s">
-        <v>77</v>
-      </c>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>16000</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,7 +1981,7 @@
         <v>16001</v>
       </c>
       <c r="D132" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,7 +1989,7 @@
         <v>57000</v>
       </c>
       <c r="D134" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,7 +1997,7 @@
         <v>57001</v>
       </c>
       <c r="D135" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2055,7 +2013,7 @@
         <v>30000</v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -2063,10 +2021,10 @@
         <v>27000</v>
       </c>
       <c r="D140" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,7 +2032,7 @@
         <v>27001</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277A19C-BBDB-4C22-9330-771D8754F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044B21C-F22B-485D-A400-40E7C0D54D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,7 +1706,7 @@
       <c r="F88" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I88" s="16"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -1919,54 +1919,30 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1130</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1131</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>1140</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1141</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1150</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044B21C-F22B-485D-A400-40E7C0D54D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B2CC03-58DD-424D-8D16-FB2BCBD0AABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
   <si>
     <t>master</t>
   </si>
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -755,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,7 +1062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1077,10 +1076,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -1095,7 +1094,7 @@
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -1110,7 +1109,7 @@
       </c>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -1125,7 +1124,7 @@
       </c>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -1140,7 +1139,7 @@
       </c>
       <c r="F38" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1168,10 +1167,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -1186,7 +1185,7 @@
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -1214,7 +1213,8 @@
       <c r="D46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -1600,7 +1600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>81</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>82</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>83</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>84</v>
       </c>
@@ -1656,10 +1656,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -1706,9 +1706,8 @@
       <c r="F88" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>100</v>
       </c>
@@ -1754,7 +1753,7 @@
       </c>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>101</v>
       </c>
@@ -1772,7 +1771,7 @@
       </c>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>102</v>
       </c>
@@ -1790,7 +1789,7 @@
       </c>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>103</v>
       </c>
@@ -1984,30 +1983,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>30000</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D139" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>27000</v>
-      </c>
-      <c r="D140" t="s">
-        <v>77</v>
-      </c>
-      <c r="E140" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
+        <v>27000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>27001</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>47000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>47001</v>
+      </c>
+      <c r="D145" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B2CC03-58DD-424D-8D16-FB2BCBD0AABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC958C-2ED4-4B6E-9FD3-C341C576F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="192" yWindow="2712" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>16000</v>
+      <c r="A131" s="10">
+        <v>16</v>
       </c>
       <c r="D131" t="s">
         <v>74</v>
@@ -1960,8 +1960,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>57000</v>
+      <c r="A134" s="10">
+        <v>57</v>
       </c>
       <c r="D134" t="s">
         <v>75</v>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>27000</v>
+      <c r="A141" s="10">
+        <v>27</v>
       </c>
       <c r="D141" t="s">
         <v>77</v>
@@ -2011,8 +2011,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>47000</v>
+      <c r="A144" s="10">
+        <v>47</v>
       </c>
       <c r="D144" t="s">
         <v>70</v>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE025715-CDF6-4E01-9E07-165BE8F6DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C51B28-6A4C-44BC-8AA3-3B3CC9D5E823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$B$1:$C$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$B$1:$C$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="98">
   <si>
     <t>master</t>
   </si>
@@ -130,9 +130,6 @@
     <t>medico</t>
   </si>
   <si>
-    <t>cura ferito primo soccorso</t>
-  </si>
-  <si>
     <t>regola traffico</t>
   </si>
   <si>
@@ -214,33 +211,6 @@
     <t>tlc</t>
   </si>
   <si>
-    <t>medico-visita medica</t>
-  </si>
-  <si>
-    <t>persona dispersa</t>
-  </si>
-  <si>
-    <t>refCri</t>
-  </si>
-  <si>
-    <t>materiale pericoloso</t>
-  </si>
-  <si>
-    <t>incendio generico</t>
-  </si>
-  <si>
-    <t>medico-incendio casa</t>
-  </si>
-  <si>
-    <t>medico-incidente</t>
-  </si>
-  <si>
-    <t>36-37</t>
-  </si>
-  <si>
-    <t>incendio casa</t>
-  </si>
-  <si>
     <t>incidente</t>
   </si>
   <si>
@@ -287,13 +257,79 @@
   </si>
   <si>
     <t>SOLO COC</t>
+  </si>
+  <si>
+    <t>primo soccorso</t>
+  </si>
+  <si>
+    <t>svenuto</t>
+  </si>
+  <si>
+    <t>10+cod</t>
+  </si>
+  <si>
+    <t>referente</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task 57</t>
+  </si>
+  <si>
+    <t>percorsi alternativi</t>
+  </si>
+  <si>
+    <t>percorsi alternativi generati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +356,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,12 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +455,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -437,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -451,19 +488,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -778,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,10 +844,10 @@
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -822,10 +858,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -836,10 +872,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -850,56 +886,56 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>60</v>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>60</v>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
@@ -910,10 +946,10 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
@@ -924,10 +960,10 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
@@ -938,149 +974,148 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="14"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
@@ -1091,10 +1126,10 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
@@ -1108,154 +1143,153 @@
       <c r="A35" s="4">
         <v>35</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="12"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>38</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>36</v>
+      <c r="B42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="22">
         <v>45</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="D44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="16"/>
+      <c r="D45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>47</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>50</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,119 +1299,119 @@
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>57</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>60</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>61</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>62</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>63</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>64</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1387,73 +1421,73 @@
       <c r="A62" s="8">
         <v>65</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>66</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>67</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>68</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>36</v>
+      <c r="C65" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>69</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>39</v>
+      <c r="C66" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,73 +1497,73 @@
       <c r="A68" s="8">
         <v>70</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>71</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>72</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>73</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>74</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,73 +1573,73 @@
       <c r="A74" s="8">
         <v>75</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>76</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>77</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>78</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>79</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,73 +1649,73 @@
       <c r="A80" s="8">
         <v>80</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>81</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>82</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>83</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>84</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,382 +1725,486 @@
       <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>36</v>
+      <c r="C89" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>39</v>
+      <c r="C90" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>100</v>
-      </c>
-      <c r="B93" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1015</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1016</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1017</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1018</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1025</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1027</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1035</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1036</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1038</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="19">
+        <v>1046</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="19">
+        <v>1047</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="20">
+        <v>1055</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="20">
+        <v>1056</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="20">
+        <v>1057</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="18"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1110</v>
+      </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="13">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>16001</v>
+      </c>
+      <c r="D143" t="s">
         <v>62</v>
       </c>
-      <c r="E93">
-        <v>56</v>
-      </c>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
-        <v>101</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="12" t="s">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="9">
+        <v>57</v>
+      </c>
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>57001</v>
+      </c>
+      <c r="D146" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>18000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>30000</v>
+      </c>
+      <c r="D150" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>27001</v>
+      </c>
+      <c r="D153" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="12">
-        <v>57</v>
-      </c>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
-        <v>102</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
-        <v>103</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" t="s">
-        <v>65</v>
-      </c>
-      <c r="E96">
-        <v>57</v>
-      </c>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
-        <v>104</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" t="s">
-        <v>64</v>
-      </c>
-      <c r="E97">
-        <v>27</v>
-      </c>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="9">
-        <v>105</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98">
-        <v>37</v>
-      </c>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
-        <v>106</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
-        <v>107</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="10" t="s">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="9">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>47001</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="9">
         <v>36</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="13">
-        <v>47</v>
-      </c>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B104" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>1110</v>
-      </c>
-      <c r="D107" t="s">
-        <v>83</v>
-      </c>
-      <c r="E107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="10">
-        <v>16</v>
-      </c>
-      <c r="D131" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>16001</v>
-      </c>
-      <c r="D132" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="10">
-        <v>57</v>
-      </c>
-      <c r="D134" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>57001</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="D158" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>18000</v>
-      </c>
-      <c r="D137" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>30000</v>
-      </c>
-      <c r="D139" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="10">
-        <v>27</v>
-      </c>
-      <c r="D141" t="s">
-        <v>77</v>
-      </c>
-      <c r="E141" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>27001</v>
-      </c>
-      <c r="D142" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="10">
-        <v>47</v>
-      </c>
-      <c r="D144" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>47001</v>
-      </c>
-      <c r="D145" t="s">
-        <v>79</v>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>36001</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="9">
+        <v>46</v>
+      </c>
+      <c r="D161" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>46000</v>
+      </c>
+      <c r="D162" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C99" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}"/>
+  <autoFilter ref="B1:C112" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C51B28-6A4C-44BC-8AA3-3B3CC9D5E823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6D494-9DFD-425B-A5D2-E9DB37245E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
   <si>
     <t>master</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>percorsi alternativi generati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + nome vol che ha finito la task</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -500,6 +503,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,20 +1803,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>81</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2201,6 +2207,65 @@
       </c>
       <c r="D162" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>201</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>202</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="25"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>203</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>204</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6D494-9DFD-425B-A5D2-E9DB37245E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB978B-EE09-49D3-AD9E-B180852A4D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
   <si>
     <t>master</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve"> + nome vol che ha finito la task</t>
+  </si>
+  <si>
+    <t>mostra il testo</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -503,9 +506,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:D171"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,6 +2094,15 @@
         <v>1150</v>
       </c>
     </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>9999</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>16</v>
@@ -2227,7 +2236,7 @@
       <c r="A168">
         <v>201</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C168" t="s">
@@ -2238,19 +2247,18 @@
       <c r="A169">
         <v>202</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B169" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
-      <c r="D169" s="25"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>203</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C170" t="s">
@@ -2261,7 +2269,7 @@
       <c r="A171">
         <v>204</v>
       </c>
-      <c r="B171" s="24" t="s">
+      <c r="B171" t="s">
         <v>40</v>
       </c>
       <c r="C171" t="s">

--- a/Assets/_Scenes/User/telefono/codiciTask.xlsx
+++ b/Assets/_Scenes/User/telefono/codiciTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\unity\git\Assets\_Scenes\User\telefono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB978B-EE09-49D3-AD9E-B180852A4D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BEB293-7B41-4BEB-AB10-321208A42245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE98166F-EE5C-4FE9-A8FD-66A7E445305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +467,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -480,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -506,6 +512,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -822,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759FC3-8CD3-41F6-B83C-93853C59191A}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,16 +1199,16 @@
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="23">
         <v>38</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="23" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="12"/>
